--- a/taskok.xlsx
+++ b/taskok.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Egyetem\V. Félév\Számgraf\szamgraf-nagybeadando\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDBFE404-9C14-4E46-9A6D-1C9E551ADD5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C683F7E-2A1B-49FE-A7FC-A8EBD1FD8EB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{962F88AF-7538-45C4-9930-B198F18AC565}"/>
+    <workbookView xWindow="-23148" yWindow="4188" windowWidth="23256" windowHeight="12576" xr2:uid="{962F88AF-7538-45C4-9930-B198F18AC565}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -69,9 +69,6 @@
     <t>• Legalább 2 animált tereptárgy.</t>
   </si>
   <si>
-    <t>• Legalább 1 db animáció, amely billentyűk vagy egér segítségével mozgatható. • Legalább 1 db animáció, amely időzítő segítségével önállóan mozog.</t>
-  </si>
-  <si>
     <t>• Animáció példák: fények villognak, jármű mozog, emberek „sétálnak”.</t>
   </si>
   <si>
@@ -141,6 +138,44 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> o Külön szöveges fájlban adjon rövid leírást a felszínhálók elkészítésének fontosabb lépéseiről! Miből indult ki, milyen szerkesztések történtek, stb.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>•</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Legalább 1 db animáció, amely billentyűk vagy egér segítségével mozgatható.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> • </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Legalább 1 db animáció, amely időzítő segítségével önállóan mozog.</t>
     </r>
   </si>
 </sst>
@@ -543,8 +578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{340E103E-DD10-4393-9E88-2670AAE00DEA}">
   <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -599,7 +634,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -607,92 +642,92 @@
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/taskok.xlsx
+++ b/taskok.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Egyetem\V. Félév\Számgraf\szamgraf-nagybeadando\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C683F7E-2A1B-49FE-A7FC-A8EBD1FD8EB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1BB6387-27CA-4A8C-8576-46C422B243F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="4188" windowWidth="23256" windowHeight="12576" xr2:uid="{962F88AF-7538-45C4-9930-B198F18AC565}"/>
   </bookViews>
@@ -114,9 +114,6 @@
     <t>Plusz pontok (maximum 4 pont)</t>
   </si>
   <si>
-    <t>• Fejlettebb textúrázás (bump, environment, normal, stb.) 1-1 pont, maximum 2 pont. • Blender textúrázás 1 pont. • Összetett Blender modellezés maximum 2 pont. • Tween animáció 1 pont. • Csontváz vagy morf animáció maximum 2 pont. • Objektum kijelölés 1 pont. • Paraméterbeállító panel megvalósítása 1 pont. • További fejlett funkciók alkalmazása (1-2 pont minőség és munkaigény szerint).</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -176,6 +173,55 @@
         <scheme val="minor"/>
       </rPr>
       <t>Legalább 1 db animáció, amely időzítő segítségével önállóan mozog.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>• Fejlettebb textúrázás (bump, environment, normal, stb.) 1-1 pont, maximum 2 pont. • Blender textúrázás 1 pont. •</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Összetett Blender modellezés maximum 2 pont.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> • </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tween animáció 1 pont.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> • Csontváz vagy morf animáció maximum 2 pont. • Objektum kijelölés 1 pont. • Paraméterbeállító panel megvalósítása 1 pont. • További fejlett funkciók alkalmazása (1-2 pont minőség és munkaigény szerint).</t>
     </r>
   </si>
 </sst>
@@ -578,8 +624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{340E103E-DD10-4393-9E88-2670AAE00DEA}">
   <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -634,7 +680,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -642,7 +688,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -727,7 +773,7 @@
     </row>
     <row r="33" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
